--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value54.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value54.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.100229888626731</v>
+        <v>2.126245260238647</v>
       </c>
       <c r="B1">
-        <v>2.550929271804359</v>
+        <v>4.244960308074951</v>
       </c>
       <c r="C1">
-        <v>2.940378823740715</v>
+        <v>4.248246669769287</v>
       </c>
       <c r="D1">
-        <v>1.753241981348874</v>
+        <v>1.917420148849487</v>
       </c>
       <c r="E1">
-        <v>0.8735803522656403</v>
+        <v>1.246058821678162</v>
       </c>
     </row>
   </sheetData>
